--- a/document/MuZic Timesheet.xlsx
+++ b/document/MuZic Timesheet.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
   <si>
     <t>Sr No.</t>
   </si>
@@ -38,6 +38,24 @@
   </si>
   <si>
     <t>Timesheet have to be fill &amp; requirement sheet have plan for iteration 1 and iteration 2</t>
+  </si>
+  <si>
+    <t>30 min</t>
+  </si>
+  <si>
+    <t>post song()</t>
+  </si>
+  <si>
+    <t>Understand crud operation using mongodb and write code for post for songs api but not unit tested</t>
+  </si>
+  <si>
+    <t>45 min</t>
+  </si>
+  <si>
+    <t>crud song()</t>
+  </si>
+  <si>
+    <t>crud operation complete. Doubt in find by id opration for get and put</t>
   </si>
 </sst>
 </file>
@@ -168,19 +186,35 @@
       <c r="A3" s="2">
         <v>2.0</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
+      <c r="B3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2">
         <v>3.0</v>
       </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
+      <c r="B4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2">
